--- a/data/trans_dic/IP16A05-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP16A05-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,56</t>
+          <t>0,0; 20,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,57</t>
+          <t>0,0; 23,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 37,96</t>
+          <t>0,0; 33,06</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 37,08</t>
+          <t>0,0; 33,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,59; 23,97</t>
+          <t>2,58; 24,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,07; 33,54</t>
+          <t>6,19; 31,12</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,45; 36,59</t>
+          <t>3,35; 33,57</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,96; 38,53</t>
+          <t>0,0; 36,49</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,73; 17,16</t>
+          <t>3,0; 17,65</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,26; 22,22</t>
+          <t>6,37; 23,54</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,74; 25,32</t>
+          <t>2,59; 24,36</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,64; 28,7</t>
+          <t>4,83; 29,57</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,36; 15,7</t>
+          <t>5,73; 16,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,12; 20,36</t>
+          <t>8,73; 20,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,59; 20,13</t>
+          <t>7,32; 19,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,43; 7,01</t>
+          <t>1,63; 7,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,03; 16,04</t>
+          <t>4,95; 16,1</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,67; 27,18</t>
+          <t>12,24; 26,45</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,27; 16,24</t>
+          <t>6,21; 16,57</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,96; 14,7</t>
+          <t>4,19; 14,33</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,69; 14,2</t>
+          <t>6,51; 14,02</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>11,6; 20,6</t>
+          <t>11,55; 20,71</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>8,41; 16,5</t>
+          <t>8,36; 16,21</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,55; 9,3</t>
+          <t>3,52; 9,23</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,54; 24,63</t>
+          <t>5,48; 24,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,68; 27,29</t>
+          <t>6,62; 26,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,5; 30,52</t>
+          <t>7,21; 28,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,11; 19,04</t>
+          <t>2,76; 19,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,94</t>
+          <t>0,0; 20,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,73; 29,85</t>
+          <t>8,07; 27,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,43; 28,27</t>
+          <t>6,77; 27,24</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,14; 17,43</t>
+          <t>3,66; 18,63</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,18; 17,28</t>
+          <t>5,34; 18,32</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8,89; 23,09</t>
+          <t>9,49; 24,12</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8,43; 24,39</t>
+          <t>8,24; 23,84</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,98; 14,67</t>
+          <t>4,8; 15,69</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,41; 14,35</t>
+          <t>6,72; 14,99</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,84; 18,41</t>
+          <t>8,9; 17,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,66; 18,54</t>
+          <t>8,6; 19,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,01; 9,22</t>
+          <t>2,89; 9,25</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,44; 13,58</t>
+          <t>5,35; 13,7</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>13,17; 23,58</t>
+          <t>13,14; 23,39</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,9; 17,07</t>
+          <t>7,54; 16,69</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,47; 13,51</t>
+          <t>5,42; 13,73</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,08; 12,81</t>
+          <t>6,96; 12,64</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>12,21; 19,42</t>
+          <t>11,98; 18,62</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>9,43; 16,23</t>
+          <t>9,31; 15,96</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,84; 9,84</t>
+          <t>4,91; 9,59</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16A05-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP16A05-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,17%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,63%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,52%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,1%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,44%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,45%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,57%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,49%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,86%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,67%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,74%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,79%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>2,62; 22,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,54; 33,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,48; 32,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 36,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 20,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 24,69</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 41,26</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 32,44</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>3,09; 17,61</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,12; 23,59</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,32; 25,41</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,31; 26,6</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,44%</t>
+          <t>9,7%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,45%</t>
+          <t>18,66%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,57%</t>
+          <t>10,53%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,92%</t>
+          <t>7,89%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>9,17%</t>
+          <t>10,07%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>16,63%</t>
+          <t>13,34%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>12,52%</t>
+          <t>12,88%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>15,32%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>7,86%</t>
+          <t>9,9%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>12,67%</t>
+          <t>15,82%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>10,74%</t>
+          <t>11,72%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>13,45%</t>
+          <t>5,66%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,34</t>
+          <t>5,45; 16,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,15</t>
+          <t>12,52; 26,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,06</t>
+          <t>5,55; 16,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,63</t>
+          <t>3,11; 16,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,58; 24,92</t>
+          <t>5,47; 16,2</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,19; 31,12</t>
+          <t>8,48; 19,81</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,35; 33,57</t>
+          <t>7,46; 19,62</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 36,49</t>
+          <t>1,4; 6,84</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,0; 17,65</t>
+          <t>6,59; 13,93</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,37; 23,54</t>
+          <t>12,14; 20,83</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,59; 24,36</t>
+          <t>8,13; 15,72</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,83; 29,57</t>
+          <t>3,13; 9,7</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>10,07%</t>
+          <t>5,77%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>13,34%</t>
+          <t>16,69%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>12,88%</t>
+          <t>14,57%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,51%</t>
+          <t>8,73%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>9,7%</t>
+          <t>12,89%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>18,66%</t>
+          <t>14,4%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>10,53%</t>
+          <t>15,11%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>7,96%</t>
+          <t>8,39%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>9,9%</t>
+          <t>10,11%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>15,82%</t>
+          <t>15,5%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>11,72%</t>
+          <t>14,84%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>5,6%</t>
+          <t>8,55%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,73; 16,28</t>
+          <t>0,0; 17,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,73; 20,07</t>
+          <t>7,71; 29,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,32; 19,45</t>
+          <t>6,0; 27,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,63; 7,04</t>
+          <t>2,79; 16,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,95; 16,1</t>
+          <t>5,6; 23,87</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,24; 26,45</t>
+          <t>5,92; 26,35</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,21; 16,57</t>
+          <t>6,83; 28,18</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,19; 14,33</t>
+          <t>2,07; 19,52</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,51; 14,02</t>
+          <t>4,61; 18,18</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>11,55; 20,71</t>
+          <t>9,08; 23,81</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>8,36; 16,21</t>
+          <t>8,39; 24,76</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,52; 9,23</t>
+          <t>4,56; 15,92</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>12,89%</t>
+          <t>8,9%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>14,4%</t>
+          <t>17,86%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>15,11%</t>
+          <t>11,69%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,36%</t>
+          <t>8,45%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,77%</t>
+          <t>10,25%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>16,69%</t>
+          <t>12,96%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>14,57%</t>
+          <t>13,03%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>8,77%</t>
+          <t>5,38%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>10,11%</t>
+          <t>9,62%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>15,5%</t>
+          <t>15,32%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>14,84%</t>
+          <t>12,34%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>8,56%</t>
+          <t>6,89%</t>
         </is>
       </c>
     </row>
@@ -1144,216 +1144,75 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,48; 24,33</t>
+          <t>5,51; 13,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,62; 26,7</t>
+          <t>12,88; 23,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,21; 28,73</t>
+          <t>7,52; 16,59</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,76; 19,03</t>
+          <t>4,64; 14,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,37</t>
+          <t>6,57; 15,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,07; 27,08</t>
+          <t>8,82; 18,12</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,77; 27,24</t>
+          <t>8,73; 18,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,66; 18,63</t>
+          <t>2,76; 9,11</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,34; 18,32</t>
+          <t>6,91; 12,77</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>9,49; 24,12</t>
+          <t>12,25; 19,17</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8,24; 23,84</t>
+          <t>9,44; 16,06</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,8; 15,69</t>
+          <t>4,64; 10,42</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>10,2%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>12,96%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>13,03%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>5,44%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>8,9%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>17,86%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>11,69%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>8,74%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>9,6%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>15,32%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>12,34%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>7,0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>6,72; 14,99</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>8,9; 17,88</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>8,6; 19,06</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>2,89; 9,25</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>5,35; 13,7</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>13,14; 23,39</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>7,54; 16,69</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>5,42; 13,73</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>6,96; 12,64</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>11,98; 18,62</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>9,31; 15,96</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>4,91; 9,59</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
